--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\workspace_playwright_JS\projecthotelsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BAA45-FBA0-48D4-B24A-57215F960DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140F5367-4A5D-46B6-8C57-C163D65A6C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log-In Test Case" sheetId="4" r:id="rId1"/>
@@ -53,17 +53,6 @@
 4. Login As Invalid User</t>
   </si>
   <si>
-    <t>Email: clark@example.com
-Password: password
-CheckInDate: 2025/02/27
-PlanName: Premium plan
-Breakfast: Yes
-EarlyCheckIn: No
-Sightseeing: No
-Confirmation: By email
-PlanCost: 220</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -122,17 +111,6 @@
   </si>
   <si>
     <t>Verify Premium User - Book Premium plan on Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email: clark@example.com  
-Password: password  
-CheckInDate: 2025/02/22
-PlanName: Premium plan  
-Breakfast: Yes  
-EarlyCheckIn: No  
-Sightseeing: No  
-Confirmation: By email  
-PlanCost: 270  </t>
   </si>
   <si>
     <t>1. Open Website "https://hotel-example-site.takeyaqa.dev/"
@@ -166,6 +144,31 @@
     <t>Verify Premium User - Book Non-Premium plan on Weekend</t>
   </si>
   <si>
+    <t>Verify Normal User - Book Non-Premium plan on Weekend</t>
+  </si>
+  <si>
+    <t>Email: clark@example.com  
+Password: password  
+CheckInDate: 2025/02/22
+PlanName: Premium plan  
+Breakfast: Yes  
+EarlyCheckIn: No  
+Sightseeing: No  
+Confirmation: By email  
+PlanCost: $270.00</t>
+  </si>
+  <si>
+    <t>Email: clark@example.com
+Password: password
+CheckInDate: 2025/02/27
+PlanName: Premium plan
+Breakfast: Yes
+EarlyCheckIn: No
+Sightseeing: No
+Confirmation: By email
+PlanCost: $220.00</t>
+  </si>
+  <si>
     <t>Email: clark@example.com
 Password: password
 CheckInDate: 2025/02/22
@@ -174,10 +177,7 @@
 EarlyCheckIn: No
 Sightseeing: No
 Confirmation: By email
-PlanCost: 85</t>
-  </si>
-  <si>
-    <t>Verify Normal User - Book Non-Premium plan on Weekend</t>
+PlanCost: $85.00</t>
   </si>
   <si>
     <t xml:space="preserve">Email: diana@example.com
@@ -188,7 +188,7 @@
 EarlyCheckIn: No
 Sightseeing: No
 Confirmation: None
-PlanCost: 85
+PlanCost: $85.00
 </t>
   </si>
 </sst>
@@ -547,7 +547,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -557,7 +557,7 @@
     <col min="5" max="5" width="109.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -579,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -597,7 +597,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -629,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -658,7 +658,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -694,9 +694,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -720,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
@@ -728,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
@@ -745,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -758,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -771,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -779,7 +777,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
